--- a/문서/5. 테이블 정의서/테이블 정의서.xlsx
+++ b/문서/5. 테이블 정의서/테이블 정의서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hj/Desktop/Dev/test/문서/5. 테이블 정의서/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A747121-7FF6-0340-8A0D-63D61B84D4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4045D7A6-AA63-1D47-BA9D-F11B27DCCE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3960" yWindow="1800" windowWidth="28800" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="130">
   <si>
     <t>테이블명세서</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -408,18 +408,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>file_size</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지 크기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일 크기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>upload_date</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -513,10 +501,6 @@
   </si>
   <si>
     <t>true, false</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>image_size</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1296,10 +1280,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L129"/>
+  <dimension ref="A1:L127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1424,7 +1408,7 @@
         <v>19</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J5" s="5"/>
     </row>
@@ -1564,7 +1548,7 @@
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J11" s="5"/>
     </row>
@@ -1663,7 +1647,7 @@
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>36</v>
@@ -1678,7 +1662,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
@@ -1953,10 +1937,10 @@
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
@@ -2023,7 +2007,7 @@
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J35" s="9"/>
     </row>
@@ -2048,7 +2032,7 @@
       <c r="H36" s="4"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
@@ -2072,7 +2056,7 @@
       <c r="H37" s="4"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
@@ -2284,7 +2268,7 @@
       </c>
       <c r="I50" s="12"/>
       <c r="J50" s="12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
@@ -2293,7 +2277,7 @@
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>89</v>
@@ -2420,7 +2404,7 @@
       <c r="B61" s="36"/>
       <c r="C61" s="36"/>
       <c r="D61" s="37" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E61" s="38"/>
       <c r="F61" s="39"/>
@@ -2493,7 +2477,7 @@
         <v>15</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D64" s="14" t="s">
         <v>31</v>
@@ -2513,7 +2497,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
+    <row r="65" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A65" s="4">
         <v>2</v>
       </c>
@@ -2535,7 +2519,7 @@
       <c r="I65" s="12"/>
       <c r="J65" s="12"/>
     </row>
-    <row r="66" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
+    <row r="66" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A66" s="4">
         <v>3</v>
       </c>
@@ -2544,7 +2528,7 @@
         <v>29</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>23</v>
@@ -2559,16 +2543,16 @@
       <c r="I66" s="12"/>
       <c r="J66" s="12"/>
     </row>
-    <row r="67" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
+    <row r="67" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A67" s="4">
         <v>4</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>23</v>
@@ -2581,7 +2565,7 @@
       <c r="I67" s="12"/>
       <c r="J67" s="12"/>
     </row>
-    <row r="68" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
+    <row r="68" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A68" s="4">
         <v>5</v>
       </c>
@@ -2603,18 +2587,20 @@
       <c r="I68" s="12"/>
       <c r="J68" s="12"/>
     </row>
-    <row r="69" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
+    <row r="69" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A69" s="4">
         <v>6</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="12" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E69" s="4"/>
+      <c r="E69" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="F69" s="11"/>
       <c r="G69" s="13" t="s">
         <v>19</v>
@@ -2623,41 +2609,47 @@
       <c r="I69" s="12"/>
       <c r="J69" s="12"/>
     </row>
-    <row r="70" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
+    <row r="70" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A70" s="4">
         <v>7</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="12" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="11"/>
+        <v>36</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F70" s="10"/>
       <c r="G70" s="13" t="s">
         <v>19</v>
       </c>
       <c r="H70" s="11"/>
       <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-    </row>
-    <row r="71" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="J70" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A71" s="4">
         <v>8</v>
       </c>
-      <c r="B71" s="4"/>
+      <c r="B71" s="13" t="s">
+        <v>109</v>
+      </c>
       <c r="C71" s="12" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F71" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="F71" s="10"/>
       <c r="G71" s="13" t="s">
         <v>19</v>
       </c>
@@ -2665,525 +2657,521 @@
       <c r="I71" s="12"/>
       <c r="J71" s="12"/>
     </row>
-    <row r="72" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
+    <row r="72" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A72" s="4">
         <v>9</v>
       </c>
       <c r="B72" s="4"/>
-      <c r="C72" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="4"/>
       <c r="F72" s="10"/>
-      <c r="G72" s="13" t="s">
-        <v>19</v>
-      </c>
+      <c r="G72" s="4"/>
       <c r="H72" s="11"/>
       <c r="I72" s="12"/>
-      <c r="J72" s="17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A73" s="4">
-        <v>10</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F73" s="10"/>
-      <c r="G73" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H73" s="11"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-    </row>
-    <row r="74" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A74" s="4">
-        <v>11</v>
-      </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-    </row>
-    <row r="75" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A75" s="18" t="s">
+      <c r="J72" s="12"/>
+    </row>
+    <row r="73" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A73" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="18" t="s">
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
-    </row>
-    <row r="76" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A76" s="21"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="22"/>
-      <c r="I76" s="22"/>
-      <c r="J76" s="23"/>
-    </row>
-    <row r="77" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A77" s="24" t="s">
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="20"/>
+    </row>
+    <row r="74" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A74" s="21"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="23"/>
+    </row>
+    <row r="75" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A75" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B77" s="25"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="30"/>
-      <c r="F77" s="31"/>
-      <c r="G77" s="31"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="31"/>
-      <c r="J77" s="32"/>
-    </row>
-    <row r="78" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A78" s="27"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="34"/>
-      <c r="G78" s="34"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="34"/>
-      <c r="J78" s="35"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="32"/>
+    </row>
+    <row r="76" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A76" s="27"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="34"/>
+      <c r="I76" s="34"/>
+      <c r="J76" s="35"/>
+    </row>
+    <row r="79" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A79" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="36"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="36"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+    </row>
+    <row r="80" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A80" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" s="36"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E80" s="38"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H80" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="I80" s="38"/>
+      <c r="J80" s="39"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
     </row>
     <row r="81" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A81" s="36" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B81" s="36"/>
       <c r="C81" s="36"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="36"/>
-      <c r="F81" s="36"/>
-      <c r="G81" s="36"/>
-      <c r="H81" s="36"/>
-      <c r="I81" s="36"/>
-      <c r="J81" s="36"/>
+      <c r="D81" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E81" s="41"/>
+      <c r="F81" s="41"/>
+      <c r="G81" s="41"/>
+      <c r="H81" s="41"/>
+      <c r="I81" s="41"/>
+      <c r="J81" s="42"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
     </row>
     <row r="82" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A82" s="36" t="s">
+      <c r="A82" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A83" s="13">
         <v>1</v>
       </c>
-      <c r="B82" s="36"/>
-      <c r="C82" s="36"/>
-      <c r="D82" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="E82" s="38"/>
-      <c r="F82" s="39"/>
-      <c r="G82" s="3" t="s">
+      <c r="B83" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F83" s="15"/>
+      <c r="G83" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H83" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I83" s="14"/>
+      <c r="J83" s="14"/>
+    </row>
+    <row r="84" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A84" s="13">
         <v>2</v>
       </c>
-      <c r="H82" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I82" s="38"/>
-      <c r="J82" s="39"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
-    </row>
-    <row r="83" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A83" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B83" s="36"/>
-      <c r="C83" s="36"/>
-      <c r="D83" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="E83" s="41"/>
-      <c r="F83" s="41"/>
-      <c r="G83" s="41"/>
-      <c r="H83" s="41"/>
-      <c r="I83" s="41"/>
-      <c r="J83" s="42"/>
-      <c r="K83" s="1"/>
-      <c r="L83" s="1"/>
-    </row>
-    <row r="84" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A84" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B84" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84" s="11"/>
+      <c r="G84" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H84" s="11"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
     </row>
     <row r="85" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A85" s="13">
-        <v>1</v>
-      </c>
-      <c r="B85" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D85" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E85" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F85" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="B85" s="4"/>
+      <c r="C85" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F85" s="11"/>
       <c r="G85" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H85" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I85" s="14"/>
-      <c r="J85" s="14"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="86" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A86" s="13">
-        <v>2</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>30</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B86" s="4"/>
       <c r="C86" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F86" s="11"/>
-      <c r="G86" s="13" t="s">
-        <v>19</v>
-      </c>
+      <c r="G86" s="4"/>
       <c r="H86" s="11"/>
       <c r="I86" s="12"/>
       <c r="J86" s="12"/>
     </row>
     <row r="87" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A87" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B87" s="4"/>
-      <c r="C87" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D87" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="4"/>
       <c r="F87" s="11"/>
-      <c r="G87" s="13" t="s">
-        <v>19</v>
-      </c>
+      <c r="G87" s="4"/>
       <c r="H87" s="11"/>
       <c r="I87" s="12"/>
-      <c r="J87" s="12" t="s">
-        <v>120</v>
-      </c>
+      <c r="J87" s="12"/>
     </row>
     <row r="88" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A88" s="13">
-        <v>4</v>
-      </c>
-      <c r="B88" s="4"/>
-      <c r="C88" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D88" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F88" s="11"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="12"/>
+      <c r="A88" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="20"/>
     </row>
     <row r="89" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A89" s="13">
-        <v>5</v>
-      </c>
-      <c r="B89" s="4"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="12"/>
+      <c r="A89" s="21"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="22"/>
+      <c r="J89" s="23"/>
     </row>
     <row r="90" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A90" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F90" s="19"/>
-      <c r="G90" s="19"/>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="20"/>
+      <c r="A90" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B90" s="25"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="31"/>
+      <c r="H90" s="31"/>
+      <c r="I90" s="31"/>
+      <c r="J90" s="32"/>
     </row>
     <row r="91" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A91" s="21"/>
-      <c r="B91" s="22"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="21"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="22"/>
-      <c r="I91" s="22"/>
-      <c r="J91" s="23"/>
-    </row>
-    <row r="92" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A92" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="30"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="32"/>
-    </row>
-    <row r="93" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A93" s="27"/>
-      <c r="B93" s="28"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="33"/>
-      <c r="F93" s="34"/>
-      <c r="G93" s="34"/>
-      <c r="H93" s="34"/>
-      <c r="I93" s="34"/>
-      <c r="J93" s="35"/>
+      <c r="A91" s="27"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="34"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="34"/>
+      <c r="I91" s="34"/>
+      <c r="J91" s="35"/>
+    </row>
+    <row r="94" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A94" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="36"/>
+      <c r="C94" s="36"/>
+      <c r="D94" s="36"/>
+      <c r="E94" s="36"/>
+      <c r="F94" s="36"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="36"/>
+      <c r="I94" s="36"/>
+      <c r="J94" s="36"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+    </row>
+    <row r="95" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A95" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" s="36"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E95" s="38"/>
+      <c r="F95" s="39"/>
+      <c r="G95" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H95" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="I95" s="38"/>
+      <c r="J95" s="39"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
     </row>
     <row r="96" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A96" s="36" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B96" s="36"/>
       <c r="C96" s="36"/>
-      <c r="D96" s="36"/>
-      <c r="E96" s="36"/>
-      <c r="F96" s="36"/>
-      <c r="G96" s="36"/>
-      <c r="H96" s="36"/>
-      <c r="I96" s="36"/>
-      <c r="J96" s="36"/>
+      <c r="D96" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="E96" s="41"/>
+      <c r="F96" s="41"/>
+      <c r="G96" s="41"/>
+      <c r="H96" s="41"/>
+      <c r="I96" s="41"/>
+      <c r="J96" s="42"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
     </row>
-    <row r="97" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A97" s="36" t="s">
+    <row r="97" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A97" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A98" s="4">
         <v>1</v>
       </c>
-      <c r="B97" s="36"/>
-      <c r="C97" s="36"/>
-      <c r="D97" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="E97" s="38"/>
-      <c r="F97" s="39"/>
-      <c r="G97" s="3" t="s">
+      <c r="B98" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F98" s="11"/>
+      <c r="G98" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+    </row>
+    <row r="99" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A99" s="4">
         <v>2</v>
       </c>
-      <c r="H97" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="I97" s="38"/>
-      <c r="J97" s="39"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
-    </row>
-    <row r="98" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A98" s="36" t="s">
+      <c r="B99" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F99" s="11"/>
+      <c r="G99" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H99" s="4"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+    </row>
+    <row r="100" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A100" s="4">
+        <v>3</v>
+      </c>
+      <c r="B100" s="4"/>
+      <c r="C100" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F100" s="6"/>
+      <c r="G100" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H100" s="4"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="12"/>
+    </row>
+    <row r="101" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A101" s="4">
         <v>4</v>
       </c>
-      <c r="B98" s="36"/>
-      <c r="C98" s="36"/>
-      <c r="D98" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="E98" s="41"/>
-      <c r="F98" s="41"/>
-      <c r="G98" s="41"/>
-      <c r="H98" s="41"/>
-      <c r="I98" s="41"/>
-      <c r="J98" s="42"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
-    </row>
-    <row r="99" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A99" s="3" t="s">
+      <c r="B101" s="4"/>
+      <c r="C101" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F101" s="6"/>
+      <c r="G101" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H101" s="4"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="12"/>
+    </row>
+    <row r="102" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A102" s="4">
         <v>5</v>
       </c>
-      <c r="B99" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A100" s="4">
-        <v>1</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D100" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F100" s="11"/>
-      <c r="G100" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H100" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
-    </row>
-    <row r="101" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A101" s="4">
-        <v>2</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D101" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F101" s="11"/>
-      <c r="G101" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H101" s="4"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
-    </row>
-    <row r="102" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A102" s="4">
-        <v>3</v>
-      </c>
       <c r="B102" s="4"/>
-      <c r="C102" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>132</v>
+      <c r="C102" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>124</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F102" s="6"/>
+      <c r="F102" s="11"/>
       <c r="G102" s="4" t="s">
         <v>19</v>
       </c>
@@ -3191,21 +3179,21 @@
       <c r="I102" s="12"/>
       <c r="J102" s="12"/>
     </row>
-    <row r="103" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
+    <row r="103" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A103" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B103" s="4"/>
-      <c r="C103" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>127</v>
+      <c r="C103" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F103" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="F103" s="11"/>
       <c r="G103" s="4" t="s">
         <v>19</v>
       </c>
@@ -3213,21 +3201,21 @@
       <c r="I103" s="12"/>
       <c r="J103" s="12"/>
     </row>
-    <row r="104" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
+    <row r="104" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A104" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B104" s="4"/>
-      <c r="C104" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D104" s="12" t="s">
-        <v>128</v>
+      <c r="C104" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F104" s="11"/>
+        <v>23</v>
+      </c>
+      <c r="F104" s="10"/>
       <c r="G104" s="4" t="s">
         <v>19</v>
       </c>
@@ -3235,21 +3223,21 @@
       <c r="I104" s="12"/>
       <c r="J104" s="12"/>
     </row>
-    <row r="105" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
+    <row r="105" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A105" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B105" s="4"/>
-      <c r="C105" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D105" s="12" t="s">
-        <v>47</v>
+      <c r="C105" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F105" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="F105" s="10"/>
       <c r="G105" s="4" t="s">
         <v>19</v>
       </c>
@@ -3257,16 +3245,16 @@
       <c r="I105" s="12"/>
       <c r="J105" s="12"/>
     </row>
-    <row r="106" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
+    <row r="106" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A106" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B106" s="4"/>
       <c r="C106" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>23</v>
@@ -3279,16 +3267,16 @@
       <c r="I106" s="12"/>
       <c r="J106" s="12"/>
     </row>
-    <row r="107" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
+    <row r="107" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A107" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B107" s="4"/>
       <c r="C107" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>21</v>
@@ -3301,16 +3289,16 @@
       <c r="I107" s="12"/>
       <c r="J107" s="12"/>
     </row>
-    <row r="108" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
+    <row r="108" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A108" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B108" s="4"/>
-      <c r="C108" s="7" t="s">
-        <v>78</v>
+      <c r="C108" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>23</v>
@@ -3321,382 +3309,352 @@
       </c>
       <c r="H108" s="4"/>
       <c r="I108" s="12"/>
-      <c r="J108" s="12"/>
-    </row>
-    <row r="109" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="J108" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A109" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B109" s="4"/>
-      <c r="C109" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="C109" s="8"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="4"/>
       <c r="F109" s="10"/>
-      <c r="G109" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="G109" s="4"/>
       <c r="H109" s="4"/>
       <c r="I109" s="12"/>
       <c r="J109" s="12"/>
     </row>
-    <row r="110" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A110" s="4">
-        <v>11</v>
-      </c>
-      <c r="B110" s="4"/>
-      <c r="C110" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F110" s="10"/>
-      <c r="G110" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H110" s="4"/>
-      <c r="I110" s="12"/>
-      <c r="J110" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A111" s="4">
-        <v>12</v>
-      </c>
-      <c r="B111" s="4"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="10"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
-      <c r="I111" s="12"/>
-      <c r="J111" s="12"/>
-    </row>
-    <row r="112" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A112" s="18" t="s">
+    <row r="110" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A110" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B112" s="19"/>
-      <c r="C112" s="19"/>
-      <c r="D112" s="20"/>
-      <c r="E112" s="18" t="s">
+      <c r="B110" s="19"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F112" s="19"/>
-      <c r="G112" s="19"/>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="20"/>
+      <c r="F110" s="19"/>
+      <c r="G110" s="19"/>
+      <c r="H110" s="19"/>
+      <c r="I110" s="19"/>
+      <c r="J110" s="20"/>
+    </row>
+    <row r="111" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A111" s="21"/>
+      <c r="B111" s="22"/>
+      <c r="C111" s="22"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="21"/>
+      <c r="F111" s="22"/>
+      <c r="G111" s="22"/>
+      <c r="H111" s="22"/>
+      <c r="I111" s="22"/>
+      <c r="J111" s="23"/>
+    </row>
+    <row r="112" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A112" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B112" s="25"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="26"/>
+      <c r="E112" s="30"/>
+      <c r="F112" s="31"/>
+      <c r="G112" s="31"/>
+      <c r="H112" s="31"/>
+      <c r="I112" s="31"/>
+      <c r="J112" s="32"/>
     </row>
     <row r="113" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A113" s="21"/>
-      <c r="B113" s="22"/>
-      <c r="C113" s="22"/>
-      <c r="D113" s="23"/>
-      <c r="E113" s="21"/>
-      <c r="F113" s="22"/>
-      <c r="G113" s="22"/>
-      <c r="H113" s="22"/>
-      <c r="I113" s="22"/>
-      <c r="J113" s="23"/>
-    </row>
-    <row r="114" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A114" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B114" s="25"/>
-      <c r="C114" s="25"/>
-      <c r="D114" s="26"/>
-      <c r="E114" s="30"/>
-      <c r="F114" s="31"/>
-      <c r="G114" s="31"/>
-      <c r="H114" s="31"/>
-      <c r="I114" s="31"/>
-      <c r="J114" s="32"/>
-    </row>
-    <row r="115" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A115" s="27"/>
-      <c r="B115" s="28"/>
-      <c r="C115" s="28"/>
-      <c r="D115" s="29"/>
-      <c r="E115" s="33"/>
-      <c r="F115" s="34"/>
-      <c r="G115" s="34"/>
-      <c r="H115" s="34"/>
-      <c r="I115" s="34"/>
-      <c r="J115" s="35"/>
+      <c r="A113" s="27"/>
+      <c r="B113" s="28"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="33"/>
+      <c r="F113" s="34"/>
+      <c r="G113" s="34"/>
+      <c r="H113" s="34"/>
+      <c r="I113" s="34"/>
+      <c r="J113" s="35"/>
+    </row>
+    <row r="116" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A116" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" s="36"/>
+      <c r="C116" s="36"/>
+      <c r="D116" s="36"/>
+      <c r="E116" s="36"/>
+      <c r="F116" s="36"/>
+      <c r="G116" s="36"/>
+      <c r="H116" s="36"/>
+      <c r="I116" s="36"/>
+      <c r="J116" s="36"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+    </row>
+    <row r="117" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A117" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B117" s="36"/>
+      <c r="C117" s="36"/>
+      <c r="D117" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="E117" s="38"/>
+      <c r="F117" s="39"/>
+      <c r="G117" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H117" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="I117" s="38"/>
+      <c r="J117" s="39"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
     </row>
     <row r="118" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A118" s="36" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B118" s="36"/>
       <c r="C118" s="36"/>
-      <c r="D118" s="36"/>
-      <c r="E118" s="36"/>
-      <c r="F118" s="36"/>
-      <c r="G118" s="36"/>
-      <c r="H118" s="36"/>
-      <c r="I118" s="36"/>
-      <c r="J118" s="36"/>
+      <c r="D118" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="E118" s="41"/>
+      <c r="F118" s="41"/>
+      <c r="G118" s="41"/>
+      <c r="H118" s="41"/>
+      <c r="I118" s="41"/>
+      <c r="J118" s="42"/>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
     </row>
     <row r="119" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A119" s="36" t="s">
+      <c r="A119" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H119" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I119" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J119" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A120" s="4">
         <v>1</v>
       </c>
-      <c r="B119" s="36"/>
-      <c r="C119" s="36"/>
-      <c r="D119" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="E119" s="38"/>
-      <c r="F119" s="39"/>
-      <c r="G119" s="16" t="s">
+      <c r="B120" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F120" s="6"/>
+      <c r="G120" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
+    </row>
+    <row r="121" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
+      <c r="A121" s="4">
         <v>2</v>
       </c>
-      <c r="H119" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="I119" s="38"/>
-      <c r="J119" s="39"/>
-      <c r="K119" s="1"/>
-      <c r="L119" s="1"/>
-    </row>
-    <row r="120" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A120" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B120" s="36"/>
-      <c r="C120" s="36"/>
-      <c r="D120" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="E120" s="41"/>
-      <c r="F120" s="41"/>
-      <c r="G120" s="41"/>
-      <c r="H120" s="41"/>
-      <c r="I120" s="41"/>
-      <c r="J120" s="42"/>
-      <c r="K120" s="1"/>
-      <c r="L120" s="1"/>
-    </row>
-    <row r="121" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A121" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B121" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C121" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D121" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E121" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F121" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H121" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I121" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J121" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="B121" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F121" s="11"/>
+      <c r="G121" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H121" s="4"/>
+      <c r="I121" s="12"/>
+      <c r="J121" s="12"/>
     </row>
     <row r="122" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A122" s="4">
-        <v>1</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>124</v>
+        <v>3</v>
+      </c>
+      <c r="B122" s="4"/>
+      <c r="C122" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F122" s="6"/>
+      <c r="F122" s="11"/>
       <c r="G122" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H122" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I122" s="5"/>
-      <c r="J122" s="5"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="12"/>
+      <c r="J122" s="12"/>
     </row>
     <row r="123" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
       <c r="A123" s="4">
-        <v>2</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C123" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D123" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B123" s="4"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="4"/>
       <c r="F123" s="11"/>
-      <c r="G123" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="G123" s="4"/>
       <c r="H123" s="4"/>
       <c r="I123" s="12"/>
       <c r="J123" s="12"/>
     </row>
     <row r="124" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A124" s="4">
-        <v>3</v>
-      </c>
-      <c r="B124" s="4"/>
-      <c r="C124" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D124" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F124" s="11"/>
-      <c r="G124" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H124" s="11"/>
-      <c r="I124" s="12"/>
-      <c r="J124" s="12"/>
+      <c r="A124" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B124" s="19"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="20"/>
+      <c r="E124" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F124" s="19"/>
+      <c r="G124" s="19"/>
+      <c r="H124" s="19"/>
+      <c r="I124" s="19"/>
+      <c r="J124" s="20"/>
     </row>
     <row r="125" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A125" s="4">
-        <v>4</v>
-      </c>
-      <c r="B125" s="4"/>
-      <c r="C125" s="12"/>
-      <c r="D125" s="12"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="11"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
-      <c r="I125" s="12"/>
-      <c r="J125" s="12"/>
+      <c r="A125" s="21"/>
+      <c r="B125" s="22"/>
+      <c r="C125" s="22"/>
+      <c r="D125" s="23"/>
+      <c r="E125" s="21"/>
+      <c r="F125" s="22"/>
+      <c r="G125" s="22"/>
+      <c r="H125" s="22"/>
+      <c r="I125" s="22"/>
+      <c r="J125" s="23"/>
     </row>
     <row r="126" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A126" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B126" s="19"/>
-      <c r="C126" s="19"/>
-      <c r="D126" s="20"/>
-      <c r="E126" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F126" s="19"/>
-      <c r="G126" s="19"/>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="20"/>
+      <c r="A126" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B126" s="25"/>
+      <c r="C126" s="25"/>
+      <c r="D126" s="26"/>
+      <c r="E126" s="30"/>
+      <c r="F126" s="31"/>
+      <c r="G126" s="31"/>
+      <c r="H126" s="31"/>
+      <c r="I126" s="31"/>
+      <c r="J126" s="32"/>
     </row>
     <row r="127" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A127" s="21"/>
-      <c r="B127" s="22"/>
-      <c r="C127" s="22"/>
-      <c r="D127" s="23"/>
-      <c r="E127" s="21"/>
-      <c r="F127" s="22"/>
-      <c r="G127" s="22"/>
-      <c r="H127" s="22"/>
-      <c r="I127" s="22"/>
-      <c r="J127" s="23"/>
-    </row>
-    <row r="128" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A128" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B128" s="25"/>
-      <c r="C128" s="25"/>
-      <c r="D128" s="26"/>
-      <c r="E128" s="30"/>
-      <c r="F128" s="31"/>
-      <c r="G128" s="31"/>
-      <c r="H128" s="31"/>
-      <c r="I128" s="31"/>
-      <c r="J128" s="32"/>
-    </row>
-    <row r="129" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A129" s="27"/>
-      <c r="B129" s="28"/>
-      <c r="C129" s="28"/>
-      <c r="D129" s="29"/>
-      <c r="E129" s="33"/>
-      <c r="F129" s="34"/>
-      <c r="G129" s="34"/>
-      <c r="H129" s="34"/>
-      <c r="I129" s="34"/>
-      <c r="J129" s="35"/>
+      <c r="A127" s="27"/>
+      <c r="B127" s="28"/>
+      <c r="C127" s="28"/>
+      <c r="D127" s="29"/>
+      <c r="E127" s="33"/>
+      <c r="F127" s="34"/>
+      <c r="G127" s="34"/>
+      <c r="H127" s="34"/>
+      <c r="I127" s="34"/>
+      <c r="J127" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="E112:J112"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="E113:J113"/>
-    <mergeCell ref="A114:D115"/>
-    <mergeCell ref="E114:J115"/>
-    <mergeCell ref="A96:J96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="H97:J97"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="D98:J98"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="E90:J90"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="E91:J91"/>
-    <mergeCell ref="A92:D93"/>
-    <mergeCell ref="E92:J93"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="D83:J83"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="E76:J76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:J78"/>
-    <mergeCell ref="A81:J81"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="E75:J75"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="D118:J118"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="E125:J125"/>
+    <mergeCell ref="A126:D127"/>
+    <mergeCell ref="E126:J127"/>
+    <mergeCell ref="A124:D124"/>
+    <mergeCell ref="E124:J124"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A116:J116"/>
+    <mergeCell ref="D117:F117"/>
+    <mergeCell ref="H117:J117"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="A20:D21"/>
+    <mergeCell ref="E20:J21"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A41:D42"/>
+    <mergeCell ref="E41:J42"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="E73:J73"/>
     <mergeCell ref="A54:D54"/>
     <mergeCell ref="E54:J54"/>
     <mergeCell ref="A55:D55"/>
@@ -3709,48 +3667,34 @@
     <mergeCell ref="H61:J61"/>
     <mergeCell ref="A62:C62"/>
     <mergeCell ref="D62:J62"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A41:D42"/>
-    <mergeCell ref="E41:J42"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="A118:J118"/>
-    <mergeCell ref="D119:F119"/>
-    <mergeCell ref="H119:J119"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="A20:D21"/>
-    <mergeCell ref="E20:J21"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="D120:J120"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="E127:J127"/>
-    <mergeCell ref="A128:D129"/>
-    <mergeCell ref="E128:J129"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="E126:J126"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="E74:J74"/>
+    <mergeCell ref="A75:D76"/>
+    <mergeCell ref="E75:J76"/>
+    <mergeCell ref="A79:J79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="D81:J81"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="E88:J88"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="E89:J89"/>
+    <mergeCell ref="A90:D91"/>
+    <mergeCell ref="E90:J91"/>
+    <mergeCell ref="A94:J94"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="D96:J96"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="E110:J110"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="E111:J111"/>
+    <mergeCell ref="A112:D113"/>
+    <mergeCell ref="E112:J113"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3759,15 +3703,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="429c7d5d-265d-44d1-b65a-f9dd31fe4b74" xsi:nil="true"/>
@@ -3776,6 +3711,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4022,20 +3966,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88AB248F-D96A-4058-9320-E2210795C82E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C483B193-E489-4907-AA3F-A9E07E3B92C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="429c7d5d-265d-44d1-b65a-f9dd31fe4b74"/>
     <ds:schemaRef ds:uri="286a3e33-430a-47f4-8dce-fd34889c2bb2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88AB248F-D96A-4058-9320-E2210795C82E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/문서/5. 테이블 정의서/테이블 정의서.xlsx
+++ b/문서/5. 테이블 정의서/테이블 정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hj/Desktop/Dev/test/문서/5. 테이블 정의서/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC67406F-172C-9B46-B14B-56A80B757D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B9A36A-E0D3-9042-8914-55462C1230F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="660" windowWidth="27420" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="760" windowWidth="27420" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 정의서" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="143">
   <si>
     <t>테이블명세서</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -942,10 +942,64 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -954,51 +1008,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1006,15 +1015,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1337,7 +1337,7 @@
   <dimension ref="A1:L147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1351,58 +1351,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="41" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="43"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="37"/>
       <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="22"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="40"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
@@ -1691,112 +1691,112 @@
       <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="38" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="43"/>
     </row>
     <row r="17" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A17" s="23"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="25"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="34"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="30"/>
     </row>
     <row r="19" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="37"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="33"/>
     </row>
     <row r="22" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="41" t="s">
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="43"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="37"/>
       <c r="G23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="41" t="s">
+      <c r="H23" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="42"/>
-      <c r="J23" s="43"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="37"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20" t="s">
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="22"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="40"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
@@ -1945,112 +1945,112 @@
       <c r="J30" s="12"/>
     </row>
     <row r="31" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="38" t="s">
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="40"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="43"/>
     </row>
     <row r="32" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A32" s="23"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="25"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="34"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="30"/>
     </row>
     <row r="34" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A34" s="29"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="37"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="33"/>
     </row>
     <row r="37" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="41" t="s">
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="E38" s="42"/>
-      <c r="F38" s="43"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="37"/>
       <c r="G38" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H38" s="41" t="s">
+      <c r="H38" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="I38" s="42"/>
-      <c r="J38" s="43"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="37"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
     <row r="39" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="20" t="s">
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="22"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="40"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
@@ -2289,112 +2289,112 @@
       <c r="J49" s="12"/>
     </row>
     <row r="50" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A50" s="38" t="s">
+      <c r="A50" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="38" t="s">
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="40"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="43"/>
     </row>
     <row r="51" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A51" s="23"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="25"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="34"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="30"/>
     </row>
     <row r="53" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A53" s="29"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="37"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="33"/>
     </row>
     <row r="56" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
     </row>
     <row r="57" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="41" t="s">
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="E57" s="42"/>
-      <c r="F57" s="43"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="37"/>
       <c r="G57" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H57" s="41" t="s">
+      <c r="H57" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="I57" s="42"/>
-      <c r="J57" s="43"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="37"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
     </row>
     <row r="58" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A58" s="19" t="s">
+      <c r="A58" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="20" t="s">
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="22"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="40"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
     </row>
@@ -2539,112 +2539,112 @@
       <c r="J64" s="12"/>
     </row>
     <row r="65" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A65" s="38" t="s">
+      <c r="A65" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B65" s="39"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="38" t="s">
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="39"/>
-      <c r="I65" s="39"/>
-      <c r="J65" s="40"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="43"/>
     </row>
     <row r="66" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A66" s="23"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="25"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
     </row>
     <row r="67" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A67" s="26" t="s">
+      <c r="A67" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="33"/>
-      <c r="H67" s="33"/>
-      <c r="I67" s="33"/>
-      <c r="J67" s="34"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="30"/>
     </row>
     <row r="68" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A68" s="29"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="37"/>
+      <c r="A68" s="25"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="33"/>
     </row>
     <row r="71" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A71" s="19" t="s">
+      <c r="A71" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="19"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="34"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
     </row>
     <row r="72" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A72" s="19" t="s">
+      <c r="A72" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="41" t="s">
+      <c r="B72" s="34"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="E72" s="42"/>
-      <c r="F72" s="43"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="37"/>
       <c r="G72" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H72" s="41" t="s">
+      <c r="H72" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="I72" s="42"/>
-      <c r="J72" s="43"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="37"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
     </row>
     <row r="73" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A73" s="19" t="s">
+      <c r="A73" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="20" t="s">
+      <c r="B73" s="34"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="21"/>
-      <c r="J73" s="22"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="39"/>
+      <c r="J73" s="40"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
     </row>
@@ -2911,112 +2911,112 @@
       <c r="J84" s="12"/>
     </row>
     <row r="85" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A85" s="19" t="s">
+      <c r="A85" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19" t="s">
+      <c r="B85" s="34"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="F85" s="19"/>
-      <c r="G85" s="19"/>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="19"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="34"/>
+      <c r="I85" s="34"/>
+      <c r="J85" s="34"/>
     </row>
     <row r="86" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A86" s="23"/>
-      <c r="B86" s="24"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="25"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="24"/>
-      <c r="I86" s="24"/>
-      <c r="J86" s="25"/>
+      <c r="A86" s="19"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="21"/>
     </row>
     <row r="87" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A87" s="26" t="s">
+      <c r="A87" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B87" s="27"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="32"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="33"/>
-      <c r="I87" s="33"/>
-      <c r="J87" s="34"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="29"/>
+      <c r="J87" s="30"/>
     </row>
     <row r="88" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A88" s="29"/>
-      <c r="B88" s="30"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="31"/>
-      <c r="E88" s="35"/>
-      <c r="F88" s="36"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="36"/>
-      <c r="I88" s="36"/>
-      <c r="J88" s="37"/>
+      <c r="A88" s="25"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="32"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="32"/>
+      <c r="I88" s="32"/>
+      <c r="J88" s="33"/>
     </row>
     <row r="91" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A91" s="19" t="s">
+      <c r="A91" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="19"/>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="19"/>
+      <c r="B91" s="34"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="34"/>
+      <c r="F91" s="34"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="34"/>
+      <c r="I91" s="34"/>
+      <c r="J91" s="34"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
     </row>
     <row r="92" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A92" s="19" t="s">
+      <c r="A92" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="19"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="41" t="s">
+      <c r="B92" s="34"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E92" s="42"/>
-      <c r="F92" s="43"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="37"/>
       <c r="G92" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H92" s="41" t="s">
+      <c r="H92" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="I92" s="42"/>
-      <c r="J92" s="43"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="37"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
     </row>
     <row r="93" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A93" s="19" t="s">
+      <c r="A93" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B93" s="19"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="20" t="s">
+      <c r="B93" s="34"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="E93" s="21"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="21"/>
-      <c r="H93" s="21"/>
-      <c r="I93" s="21"/>
-      <c r="J93" s="22"/>
+      <c r="E93" s="39"/>
+      <c r="F93" s="39"/>
+      <c r="G93" s="39"/>
+      <c r="H93" s="39"/>
+      <c r="I93" s="39"/>
+      <c r="J93" s="40"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
     </row>
@@ -3348,112 +3348,112 @@
       <c r="J107" s="9"/>
     </row>
     <row r="108" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A108" s="38" t="s">
+      <c r="A108" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B108" s="39"/>
-      <c r="C108" s="39"/>
-      <c r="D108" s="40"/>
-      <c r="E108" s="38" t="s">
+      <c r="B108" s="42"/>
+      <c r="C108" s="42"/>
+      <c r="D108" s="43"/>
+      <c r="E108" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="F108" s="39"/>
-      <c r="G108" s="39"/>
-      <c r="H108" s="39"/>
-      <c r="I108" s="39"/>
-      <c r="J108" s="40"/>
+      <c r="F108" s="42"/>
+      <c r="G108" s="42"/>
+      <c r="H108" s="42"/>
+      <c r="I108" s="42"/>
+      <c r="J108" s="43"/>
     </row>
     <row r="109" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A109" s="23"/>
-      <c r="B109" s="24"/>
-      <c r="C109" s="24"/>
-      <c r="D109" s="25"/>
-      <c r="E109" s="23"/>
-      <c r="F109" s="24"/>
-      <c r="G109" s="24"/>
-      <c r="H109" s="24"/>
-      <c r="I109" s="24"/>
-      <c r="J109" s="25"/>
+      <c r="A109" s="19"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="20"/>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="21"/>
     </row>
     <row r="110" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A110" s="26" t="s">
+      <c r="A110" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B110" s="27"/>
-      <c r="C110" s="27"/>
-      <c r="D110" s="28"/>
-      <c r="E110" s="32"/>
-      <c r="F110" s="33"/>
-      <c r="G110" s="33"/>
-      <c r="H110" s="33"/>
-      <c r="I110" s="33"/>
-      <c r="J110" s="34"/>
+      <c r="B110" s="23"/>
+      <c r="C110" s="23"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="28"/>
+      <c r="F110" s="29"/>
+      <c r="G110" s="29"/>
+      <c r="H110" s="29"/>
+      <c r="I110" s="29"/>
+      <c r="J110" s="30"/>
     </row>
     <row r="111" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A111" s="29"/>
-      <c r="B111" s="30"/>
-      <c r="C111" s="30"/>
-      <c r="D111" s="31"/>
-      <c r="E111" s="35"/>
-      <c r="F111" s="36"/>
-      <c r="G111" s="36"/>
-      <c r="H111" s="36"/>
-      <c r="I111" s="36"/>
-      <c r="J111" s="37"/>
+      <c r="A111" s="25"/>
+      <c r="B111" s="26"/>
+      <c r="C111" s="26"/>
+      <c r="D111" s="27"/>
+      <c r="E111" s="31"/>
+      <c r="F111" s="32"/>
+      <c r="G111" s="32"/>
+      <c r="H111" s="32"/>
+      <c r="I111" s="32"/>
+      <c r="J111" s="33"/>
     </row>
     <row r="114" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A114" s="19" t="s">
+      <c r="A114" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B114" s="19"/>
-      <c r="C114" s="19"/>
-      <c r="D114" s="19"/>
-      <c r="E114" s="19"/>
-      <c r="F114" s="19"/>
-      <c r="G114" s="19"/>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="19"/>
+      <c r="B114" s="34"/>
+      <c r="C114" s="34"/>
+      <c r="D114" s="34"/>
+      <c r="E114" s="34"/>
+      <c r="F114" s="34"/>
+      <c r="G114" s="34"/>
+      <c r="H114" s="34"/>
+      <c r="I114" s="34"/>
+      <c r="J114" s="34"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
     </row>
     <row r="115" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A115" s="19" t="s">
+      <c r="A115" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B115" s="19"/>
-      <c r="C115" s="19"/>
-      <c r="D115" s="41" t="s">
+      <c r="B115" s="34"/>
+      <c r="C115" s="34"/>
+      <c r="D115" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="E115" s="42"/>
-      <c r="F115" s="43"/>
+      <c r="E115" s="36"/>
+      <c r="F115" s="37"/>
       <c r="G115" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H115" s="41" t="s">
+      <c r="H115" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="I115" s="42"/>
-      <c r="J115" s="43"/>
+      <c r="I115" s="36"/>
+      <c r="J115" s="37"/>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
     </row>
     <row r="116" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A116" s="19" t="s">
+      <c r="A116" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B116" s="19"/>
-      <c r="C116" s="19"/>
-      <c r="D116" s="20" t="s">
+      <c r="B116" s="34"/>
+      <c r="C116" s="34"/>
+      <c r="D116" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="E116" s="21"/>
-      <c r="F116" s="21"/>
-      <c r="G116" s="21"/>
-      <c r="H116" s="21"/>
-      <c r="I116" s="21"/>
-      <c r="J116" s="22"/>
+      <c r="E116" s="39"/>
+      <c r="F116" s="39"/>
+      <c r="G116" s="39"/>
+      <c r="H116" s="39"/>
+      <c r="I116" s="39"/>
+      <c r="J116" s="40"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
     </row>
@@ -3631,7 +3631,9 @@
       <c r="A124" s="4">
         <v>7</v>
       </c>
-      <c r="B124" s="4"/>
+      <c r="B124" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C124" s="7" t="s">
         <v>73</v>
       </c>
@@ -3675,7 +3677,9 @@
       <c r="A126" s="4">
         <v>9</v>
       </c>
-      <c r="B126" s="4"/>
+      <c r="B126" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C126" s="7" t="s">
         <v>76</v>
       </c>
@@ -3754,112 +3758,112 @@
       <c r="J129" s="12"/>
     </row>
     <row r="130" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A130" s="38" t="s">
+      <c r="A130" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B130" s="39"/>
-      <c r="C130" s="39"/>
-      <c r="D130" s="40"/>
-      <c r="E130" s="38" t="s">
+      <c r="B130" s="42"/>
+      <c r="C130" s="42"/>
+      <c r="D130" s="43"/>
+      <c r="E130" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="F130" s="39"/>
-      <c r="G130" s="39"/>
-      <c r="H130" s="39"/>
-      <c r="I130" s="39"/>
-      <c r="J130" s="40"/>
+      <c r="F130" s="42"/>
+      <c r="G130" s="42"/>
+      <c r="H130" s="42"/>
+      <c r="I130" s="42"/>
+      <c r="J130" s="43"/>
     </row>
     <row r="131" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A131" s="23"/>
-      <c r="B131" s="24"/>
-      <c r="C131" s="24"/>
-      <c r="D131" s="25"/>
-      <c r="E131" s="23"/>
-      <c r="F131" s="24"/>
-      <c r="G131" s="24"/>
-      <c r="H131" s="24"/>
-      <c r="I131" s="24"/>
-      <c r="J131" s="25"/>
+      <c r="A131" s="19"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="20"/>
+      <c r="D131" s="21"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="20"/>
+      <c r="H131" s="20"/>
+      <c r="I131" s="20"/>
+      <c r="J131" s="21"/>
     </row>
     <row r="132" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A132" s="26" t="s">
+      <c r="A132" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B132" s="27"/>
-      <c r="C132" s="27"/>
-      <c r="D132" s="28"/>
-      <c r="E132" s="32"/>
-      <c r="F132" s="33"/>
-      <c r="G132" s="33"/>
-      <c r="H132" s="33"/>
-      <c r="I132" s="33"/>
-      <c r="J132" s="34"/>
+      <c r="B132" s="23"/>
+      <c r="C132" s="23"/>
+      <c r="D132" s="24"/>
+      <c r="E132" s="28"/>
+      <c r="F132" s="29"/>
+      <c r="G132" s="29"/>
+      <c r="H132" s="29"/>
+      <c r="I132" s="29"/>
+      <c r="J132" s="30"/>
     </row>
     <row r="133" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A133" s="29"/>
-      <c r="B133" s="30"/>
-      <c r="C133" s="30"/>
-      <c r="D133" s="31"/>
-      <c r="E133" s="35"/>
-      <c r="F133" s="36"/>
-      <c r="G133" s="36"/>
-      <c r="H133" s="36"/>
-      <c r="I133" s="36"/>
-      <c r="J133" s="37"/>
+      <c r="A133" s="25"/>
+      <c r="B133" s="26"/>
+      <c r="C133" s="26"/>
+      <c r="D133" s="27"/>
+      <c r="E133" s="31"/>
+      <c r="F133" s="32"/>
+      <c r="G133" s="32"/>
+      <c r="H133" s="32"/>
+      <c r="I133" s="32"/>
+      <c r="J133" s="33"/>
     </row>
     <row r="136" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A136" s="19" t="s">
+      <c r="A136" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B136" s="19"/>
-      <c r="C136" s="19"/>
-      <c r="D136" s="19"/>
-      <c r="E136" s="19"/>
-      <c r="F136" s="19"/>
-      <c r="G136" s="19"/>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="19"/>
+      <c r="B136" s="34"/>
+      <c r="C136" s="34"/>
+      <c r="D136" s="34"/>
+      <c r="E136" s="34"/>
+      <c r="F136" s="34"/>
+      <c r="G136" s="34"/>
+      <c r="H136" s="34"/>
+      <c r="I136" s="34"/>
+      <c r="J136" s="34"/>
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
     </row>
     <row r="137" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A137" s="19" t="s">
+      <c r="A137" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B137" s="19"/>
-      <c r="C137" s="19"/>
-      <c r="D137" s="41" t="s">
+      <c r="B137" s="34"/>
+      <c r="C137" s="34"/>
+      <c r="D137" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="E137" s="42"/>
-      <c r="F137" s="43"/>
+      <c r="E137" s="36"/>
+      <c r="F137" s="37"/>
       <c r="G137" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="H137" s="41" t="s">
+      <c r="H137" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="I137" s="42"/>
-      <c r="J137" s="43"/>
+      <c r="I137" s="36"/>
+      <c r="J137" s="37"/>
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
     </row>
     <row r="138" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A138" s="19" t="s">
+      <c r="A138" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B138" s="19"/>
-      <c r="C138" s="19"/>
-      <c r="D138" s="20" t="s">
+      <c r="B138" s="34"/>
+      <c r="C138" s="34"/>
+      <c r="D138" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="E138" s="21"/>
-      <c r="F138" s="21"/>
-      <c r="G138" s="21"/>
-      <c r="H138" s="21"/>
-      <c r="I138" s="21"/>
-      <c r="J138" s="22"/>
+      <c r="E138" s="39"/>
+      <c r="F138" s="39"/>
+      <c r="G138" s="39"/>
+      <c r="H138" s="39"/>
+      <c r="I138" s="39"/>
+      <c r="J138" s="40"/>
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
     </row>
@@ -3984,117 +3988,85 @@
       <c r="J143" s="12"/>
     </row>
     <row r="144" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A144" s="38" t="s">
+      <c r="A144" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B144" s="39"/>
-      <c r="C144" s="39"/>
-      <c r="D144" s="40"/>
-      <c r="E144" s="38" t="s">
+      <c r="B144" s="42"/>
+      <c r="C144" s="42"/>
+      <c r="D144" s="43"/>
+      <c r="E144" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="F144" s="39"/>
-      <c r="G144" s="39"/>
-      <c r="H144" s="39"/>
-      <c r="I144" s="39"/>
-      <c r="J144" s="40"/>
+      <c r="F144" s="42"/>
+      <c r="G144" s="42"/>
+      <c r="H144" s="42"/>
+      <c r="I144" s="42"/>
+      <c r="J144" s="43"/>
     </row>
     <row r="145" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A145" s="23"/>
-      <c r="B145" s="24"/>
-      <c r="C145" s="24"/>
-      <c r="D145" s="25"/>
-      <c r="E145" s="23"/>
-      <c r="F145" s="24"/>
-      <c r="G145" s="24"/>
-      <c r="H145" s="24"/>
-      <c r="I145" s="24"/>
-      <c r="J145" s="25"/>
+      <c r="A145" s="19"/>
+      <c r="B145" s="20"/>
+      <c r="C145" s="20"/>
+      <c r="D145" s="21"/>
+      <c r="E145" s="19"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="20"/>
+      <c r="H145" s="20"/>
+      <c r="I145" s="20"/>
+      <c r="J145" s="21"/>
     </row>
     <row r="146" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A146" s="26" t="s">
+      <c r="A146" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B146" s="27"/>
-      <c r="C146" s="27"/>
-      <c r="D146" s="28"/>
-      <c r="E146" s="32"/>
-      <c r="F146" s="33"/>
-      <c r="G146" s="33"/>
-      <c r="H146" s="33"/>
-      <c r="I146" s="33"/>
-      <c r="J146" s="34"/>
+      <c r="B146" s="23"/>
+      <c r="C146" s="23"/>
+      <c r="D146" s="24"/>
+      <c r="E146" s="28"/>
+      <c r="F146" s="29"/>
+      <c r="G146" s="29"/>
+      <c r="H146" s="29"/>
+      <c r="I146" s="29"/>
+      <c r="J146" s="30"/>
     </row>
     <row r="147" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A147" s="29"/>
-      <c r="B147" s="30"/>
-      <c r="C147" s="30"/>
-      <c r="D147" s="31"/>
-      <c r="E147" s="35"/>
-      <c r="F147" s="36"/>
-      <c r="G147" s="36"/>
-      <c r="H147" s="36"/>
-      <c r="I147" s="36"/>
-      <c r="J147" s="37"/>
+      <c r="A147" s="25"/>
+      <c r="B147" s="26"/>
+      <c r="C147" s="26"/>
+      <c r="D147" s="27"/>
+      <c r="E147" s="31"/>
+      <c r="F147" s="32"/>
+      <c r="G147" s="32"/>
+      <c r="H147" s="32"/>
+      <c r="I147" s="32"/>
+      <c r="J147" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="E131:J131"/>
-    <mergeCell ref="A132:D133"/>
-    <mergeCell ref="E132:J133"/>
-    <mergeCell ref="A71:J71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="D73:J73"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="E85:J85"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="E86:J86"/>
-    <mergeCell ref="A87:D88"/>
-    <mergeCell ref="E87:J88"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="E65:J65"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="E66:J66"/>
-    <mergeCell ref="A67:D68"/>
-    <mergeCell ref="E67:J68"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="D58:J58"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="E51:J51"/>
-    <mergeCell ref="A52:D53"/>
-    <mergeCell ref="E52:J53"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="A33:D34"/>
-    <mergeCell ref="E33:J34"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="D138:J138"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="E145:J145"/>
+    <mergeCell ref="A146:D147"/>
+    <mergeCell ref="E146:J147"/>
+    <mergeCell ref="A144:D144"/>
+    <mergeCell ref="E144:J144"/>
+    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="A136:J136"/>
+    <mergeCell ref="D137:F137"/>
+    <mergeCell ref="H137:J137"/>
+    <mergeCell ref="A91:J91"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="D93:J93"/>
+    <mergeCell ref="A114:J114"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="H115:J115"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="D116:J116"/>
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="E130:J130"/>
+    <mergeCell ref="A131:D131"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
@@ -4111,30 +4083,62 @@
     <mergeCell ref="A18:D19"/>
     <mergeCell ref="E18:J19"/>
     <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A137:C137"/>
-    <mergeCell ref="A136:J136"/>
-    <mergeCell ref="D137:F137"/>
-    <mergeCell ref="H137:J137"/>
-    <mergeCell ref="A91:J91"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="D93:J93"/>
-    <mergeCell ref="A114:J114"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="D115:F115"/>
-    <mergeCell ref="H115:J115"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="D116:J116"/>
-    <mergeCell ref="A130:D130"/>
-    <mergeCell ref="E130:J130"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="D138:J138"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="E145:J145"/>
-    <mergeCell ref="A146:D147"/>
-    <mergeCell ref="E146:J147"/>
-    <mergeCell ref="A144:D144"/>
-    <mergeCell ref="E144:J144"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="E50:J50"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="A33:D34"/>
+    <mergeCell ref="E33:J34"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="E51:J51"/>
+    <mergeCell ref="A52:D53"/>
+    <mergeCell ref="E52:J53"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="D58:J58"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="E65:J65"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="E66:J66"/>
+    <mergeCell ref="A67:D68"/>
+    <mergeCell ref="E67:J68"/>
+    <mergeCell ref="E131:J131"/>
+    <mergeCell ref="A132:D133"/>
+    <mergeCell ref="E132:J133"/>
+    <mergeCell ref="A71:J71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="D73:J73"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="E85:J85"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="E86:J86"/>
+    <mergeCell ref="A87:D88"/>
+    <mergeCell ref="E87:J88"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4143,14 +4147,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="429c7d5d-265d-44d1-b65a-f9dd31fe4b74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="286a3e33-430a-47f4-8dce-fd34889c2bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4397,21 +4399,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="429c7d5d-265d-44d1-b65a-f9dd31fe4b74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="286a3e33-430a-47f4-8dce-fd34889c2bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C483B193-E489-4907-AA3F-A9E07E3B92C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88AB248F-D96A-4058-9320-E2210795C82E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="429c7d5d-265d-44d1-b65a-f9dd31fe4b74"/>
-    <ds:schemaRef ds:uri="286a3e33-430a-47f4-8dce-fd34889c2bb2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4436,9 +4437,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88AB248F-D96A-4058-9320-E2210795C82E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C483B193-E489-4907-AA3F-A9E07E3B92C7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="429c7d5d-265d-44d1-b65a-f9dd31fe4b74"/>
+    <ds:schemaRef ds:uri="286a3e33-430a-47f4-8dce-fd34889c2bb2"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/문서/5. 테이블 정의서/테이블 정의서.xlsx
+++ b/문서/5. 테이블 정의서/테이블 정의서.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hj/Desktop/Dev/test/문서/5. 테이블 정의서/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boyou\OneDrive\바탕 화면\project\test\문서\5. 테이블 정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15F905C-BD50-C04F-881B-12B2BCBA3ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6D8432-445A-4E16-86C1-2C43B2A1D30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="760" windowWidth="27420" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36435" yWindow="-915" windowWidth="25545" windowHeight="14055" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 정의서" sheetId="1" r:id="rId1"/>
+    <sheet name="모델링" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -871,10 +872,64 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -883,51 +938,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -935,15 +945,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -964,6 +965,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>182376</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114897</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D5CBAF2-B378-2439-B694-DB69F0441BEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="219075"/>
+          <a:ext cx="10040751" cy="4277322"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>563338</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>181581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E760D972-D7B6-EDDB-9BB1-E5769EED5E49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5257800"/>
+          <a:ext cx="9764488" cy="4344006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1265,11 +1359,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A90" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I112" sqref="I112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
@@ -1280,58 +1374,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="40" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="21"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="39"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
@@ -1710,112 +1804,112 @@
       <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="37" t="s">
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="39"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="42"/>
     </row>
     <row r="21" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="24"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20"/>
     </row>
     <row r="22" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="33"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="29"/>
     </row>
     <row r="23" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="36"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="32"/>
     </row>
     <row r="26" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="40" t="s">
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="42"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="36"/>
       <c r="G27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="40" t="s">
+      <c r="H27" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="I27" s="41"/>
-      <c r="J27" s="42"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="36"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="19" t="s">
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="21"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="39"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
@@ -1964,112 +2058,112 @@
       <c r="J34" s="12"/>
     </row>
     <row r="35" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="37" t="s">
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="39"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="42"/>
     </row>
     <row r="36" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A36" s="22"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="24"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="20"/>
     </row>
     <row r="37" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="33"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="29"/>
     </row>
     <row r="38" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A38" s="28"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="36"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
     </row>
     <row r="41" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
     </row>
     <row r="42" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="40" t="s">
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="E42" s="41"/>
-      <c r="F42" s="42"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="36"/>
       <c r="G42" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H42" s="40" t="s">
+      <c r="H42" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="I42" s="41"/>
-      <c r="J42" s="42"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="36"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="19" t="s">
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="21"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="39"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
     </row>
@@ -2336,112 +2430,112 @@
       <c r="J54" s="12"/>
     </row>
     <row r="55" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A55" s="18" t="s">
+      <c r="A55" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18" t="s">
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33"/>
     </row>
     <row r="56" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A56" s="22"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="24"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="20"/>
     </row>
     <row r="57" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="33"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="29"/>
     </row>
     <row r="58" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A58" s="28"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="36"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="32"/>
     </row>
     <row r="61" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A61" s="18" t="s">
+      <c r="A61" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="33"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
     </row>
     <row r="62" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="40" t="s">
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E62" s="41"/>
-      <c r="F62" s="42"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="36"/>
       <c r="G62" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H62" s="40" t="s">
+      <c r="H62" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="I62" s="41"/>
-      <c r="J62" s="42"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="36"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
     </row>
     <row r="63" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A63" s="18" t="s">
+      <c r="A63" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="19" t="s">
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="21"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="38"/>
+      <c r="J63" s="39"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
     </row>
@@ -2773,112 +2867,112 @@
       <c r="J77" s="9"/>
     </row>
     <row r="78" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A78" s="37" t="s">
+      <c r="A78" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B78" s="38"/>
-      <c r="C78" s="38"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="37" t="s">
+      <c r="B78" s="41"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="F78" s="38"/>
-      <c r="G78" s="38"/>
-      <c r="H78" s="38"/>
-      <c r="I78" s="38"/>
-      <c r="J78" s="39"/>
+      <c r="F78" s="41"/>
+      <c r="G78" s="41"/>
+      <c r="H78" s="41"/>
+      <c r="I78" s="41"/>
+      <c r="J78" s="42"/>
     </row>
     <row r="79" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A79" s="22"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23"/>
-      <c r="I79" s="23"/>
-      <c r="J79" s="24"/>
+      <c r="A79" s="18"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="20"/>
     </row>
     <row r="80" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A80" s="25" t="s">
+      <c r="A80" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B80" s="26"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="31"/>
-      <c r="F80" s="32"/>
-      <c r="G80" s="32"/>
-      <c r="H80" s="32"/>
-      <c r="I80" s="32"/>
-      <c r="J80" s="33"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="29"/>
     </row>
     <row r="81" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A81" s="28"/>
-      <c r="B81" s="29"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="34"/>
-      <c r="F81" s="35"/>
-      <c r="G81" s="35"/>
-      <c r="H81" s="35"/>
-      <c r="I81" s="35"/>
-      <c r="J81" s="36"/>
+      <c r="A81" s="24"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="31"/>
+      <c r="I81" s="31"/>
+      <c r="J81" s="32"/>
     </row>
     <row r="84" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A84" s="18" t="s">
+      <c r="A84" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="18"/>
-      <c r="J84" s="18"/>
+      <c r="B84" s="33"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="33"/>
+      <c r="I84" s="33"/>
+      <c r="J84" s="33"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
     </row>
     <row r="85" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A85" s="18" t="s">
+      <c r="A85" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="40" t="s">
+      <c r="B85" s="33"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="E85" s="41"/>
-      <c r="F85" s="42"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="36"/>
       <c r="G85" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H85" s="40" t="s">
+      <c r="H85" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="I85" s="41"/>
-      <c r="J85" s="42"/>
+      <c r="I85" s="35"/>
+      <c r="J85" s="36"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
     </row>
     <row r="86" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A86" s="18" t="s">
+      <c r="A86" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B86" s="18"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="19" t="s">
+      <c r="B86" s="33"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="E86" s="20"/>
-      <c r="F86" s="20"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="20"/>
-      <c r="J86" s="21"/>
+      <c r="E86" s="38"/>
+      <c r="F86" s="38"/>
+      <c r="G86" s="38"/>
+      <c r="H86" s="38"/>
+      <c r="I86" s="38"/>
+      <c r="J86" s="39"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
     </row>
@@ -3183,112 +3277,112 @@
       <c r="J99" s="12"/>
     </row>
     <row r="100" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A100" s="37" t="s">
+      <c r="A100" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B100" s="38"/>
-      <c r="C100" s="38"/>
-      <c r="D100" s="39"/>
-      <c r="E100" s="37" t="s">
+      <c r="B100" s="41"/>
+      <c r="C100" s="41"/>
+      <c r="D100" s="42"/>
+      <c r="E100" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="F100" s="38"/>
-      <c r="G100" s="38"/>
-      <c r="H100" s="38"/>
-      <c r="I100" s="38"/>
-      <c r="J100" s="39"/>
+      <c r="F100" s="41"/>
+      <c r="G100" s="41"/>
+      <c r="H100" s="41"/>
+      <c r="I100" s="41"/>
+      <c r="J100" s="42"/>
     </row>
     <row r="101" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A101" s="22"/>
-      <c r="B101" s="23"/>
-      <c r="C101" s="23"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="22"/>
-      <c r="F101" s="23"/>
-      <c r="G101" s="23"/>
-      <c r="H101" s="23"/>
-      <c r="I101" s="23"/>
-      <c r="J101" s="24"/>
+      <c r="A101" s="18"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="19"/>
+      <c r="H101" s="19"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="20"/>
     </row>
     <row r="102" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A102" s="25" t="s">
+      <c r="A102" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B102" s="26"/>
-      <c r="C102" s="26"/>
-      <c r="D102" s="27"/>
-      <c r="E102" s="31"/>
-      <c r="F102" s="32"/>
-      <c r="G102" s="32"/>
-      <c r="H102" s="32"/>
-      <c r="I102" s="32"/>
-      <c r="J102" s="33"/>
+      <c r="B102" s="22"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="28"/>
+      <c r="G102" s="28"/>
+      <c r="H102" s="28"/>
+      <c r="I102" s="28"/>
+      <c r="J102" s="29"/>
     </row>
     <row r="103" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A103" s="28"/>
-      <c r="B103" s="29"/>
-      <c r="C103" s="29"/>
-      <c r="D103" s="30"/>
-      <c r="E103" s="34"/>
-      <c r="F103" s="35"/>
-      <c r="G103" s="35"/>
-      <c r="H103" s="35"/>
-      <c r="I103" s="35"/>
-      <c r="J103" s="36"/>
+      <c r="A103" s="24"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="26"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="31"/>
+      <c r="G103" s="31"/>
+      <c r="H103" s="31"/>
+      <c r="I103" s="31"/>
+      <c r="J103" s="32"/>
     </row>
     <row r="106" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A106" s="18" t="s">
+      <c r="A106" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B106" s="18"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="18"/>
-      <c r="H106" s="18"/>
-      <c r="I106" s="18"/>
-      <c r="J106" s="18"/>
+      <c r="B106" s="33"/>
+      <c r="C106" s="33"/>
+      <c r="D106" s="33"/>
+      <c r="E106" s="33"/>
+      <c r="F106" s="33"/>
+      <c r="G106" s="33"/>
+      <c r="H106" s="33"/>
+      <c r="I106" s="33"/>
+      <c r="J106" s="33"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
     </row>
     <row r="107" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A107" s="18" t="s">
+      <c r="A107" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B107" s="18"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="40" t="s">
+      <c r="B107" s="33"/>
+      <c r="C107" s="33"/>
+      <c r="D107" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="E107" s="41"/>
-      <c r="F107" s="42"/>
+      <c r="E107" s="35"/>
+      <c r="F107" s="36"/>
       <c r="G107" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="H107" s="40" t="s">
+      <c r="H107" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="I107" s="41"/>
-      <c r="J107" s="42"/>
+      <c r="I107" s="35"/>
+      <c r="J107" s="36"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
     </row>
     <row r="108" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A108" s="18" t="s">
+      <c r="A108" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B108" s="18"/>
-      <c r="C108" s="18"/>
-      <c r="D108" s="19" t="s">
+      <c r="B108" s="33"/>
+      <c r="C108" s="33"/>
+      <c r="D108" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="E108" s="20"/>
-      <c r="F108" s="20"/>
-      <c r="G108" s="20"/>
-      <c r="H108" s="20"/>
-      <c r="I108" s="20"/>
-      <c r="J108" s="21"/>
+      <c r="E108" s="38"/>
+      <c r="F108" s="38"/>
+      <c r="G108" s="38"/>
+      <c r="H108" s="38"/>
+      <c r="I108" s="38"/>
+      <c r="J108" s="39"/>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
     </row>
@@ -3413,93 +3507,85 @@
       <c r="J113" s="12"/>
     </row>
     <row r="114" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A114" s="37" t="s">
+      <c r="A114" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B114" s="38"/>
-      <c r="C114" s="38"/>
-      <c r="D114" s="39"/>
-      <c r="E114" s="37" t="s">
+      <c r="B114" s="41"/>
+      <c r="C114" s="41"/>
+      <c r="D114" s="42"/>
+      <c r="E114" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="F114" s="38"/>
-      <c r="G114" s="38"/>
-      <c r="H114" s="38"/>
-      <c r="I114" s="38"/>
-      <c r="J114" s="39"/>
+      <c r="F114" s="41"/>
+      <c r="G114" s="41"/>
+      <c r="H114" s="41"/>
+      <c r="I114" s="41"/>
+      <c r="J114" s="42"/>
     </row>
     <row r="115" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A115" s="22"/>
-      <c r="B115" s="23"/>
-      <c r="C115" s="23"/>
-      <c r="D115" s="24"/>
-      <c r="E115" s="22"/>
-      <c r="F115" s="23"/>
-      <c r="G115" s="23"/>
-      <c r="H115" s="23"/>
-      <c r="I115" s="23"/>
-      <c r="J115" s="24"/>
+      <c r="A115" s="18"/>
+      <c r="B115" s="19"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="19"/>
+      <c r="G115" s="19"/>
+      <c r="H115" s="19"/>
+      <c r="I115" s="19"/>
+      <c r="J115" s="20"/>
     </row>
     <row r="116" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A116" s="25" t="s">
+      <c r="A116" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B116" s="26"/>
-      <c r="C116" s="26"/>
-      <c r="D116" s="27"/>
-      <c r="E116" s="31"/>
-      <c r="F116" s="32"/>
-      <c r="G116" s="32"/>
-      <c r="H116" s="32"/>
-      <c r="I116" s="32"/>
-      <c r="J116" s="33"/>
+      <c r="B116" s="22"/>
+      <c r="C116" s="22"/>
+      <c r="D116" s="23"/>
+      <c r="E116" s="27"/>
+      <c r="F116" s="28"/>
+      <c r="G116" s="28"/>
+      <c r="H116" s="28"/>
+      <c r="I116" s="28"/>
+      <c r="J116" s="29"/>
     </row>
     <row r="117" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A117" s="28"/>
-      <c r="B117" s="29"/>
-      <c r="C117" s="29"/>
-      <c r="D117" s="30"/>
-      <c r="E117" s="34"/>
-      <c r="F117" s="35"/>
-      <c r="G117" s="35"/>
-      <c r="H117" s="35"/>
-      <c r="I117" s="35"/>
-      <c r="J117" s="36"/>
+      <c r="A117" s="24"/>
+      <c r="B117" s="25"/>
+      <c r="C117" s="25"/>
+      <c r="D117" s="26"/>
+      <c r="E117" s="30"/>
+      <c r="F117" s="31"/>
+      <c r="G117" s="31"/>
+      <c r="H117" s="31"/>
+      <c r="I117" s="31"/>
+      <c r="J117" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="E101:J101"/>
-    <mergeCell ref="A102:D103"/>
-    <mergeCell ref="E102:J103"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="A57:D58"/>
-    <mergeCell ref="E57:J58"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="A37:D38"/>
-    <mergeCell ref="E37:J38"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="D108:J108"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="E115:J115"/>
+    <mergeCell ref="A116:D117"/>
+    <mergeCell ref="E116:J117"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="E114:J114"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A106:J106"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="H107:J107"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="D63:J63"/>
+    <mergeCell ref="A84:J84"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="D86:J86"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="E100:J100"/>
+    <mergeCell ref="A101:D101"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
@@ -3516,34 +3602,58 @@
     <mergeCell ref="A22:D23"/>
     <mergeCell ref="E22:J23"/>
     <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="A106:J106"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="H107:J107"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="D63:J63"/>
-    <mergeCell ref="A84:J84"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="D86:J86"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="E100:J100"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="D108:J108"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="E115:J115"/>
-    <mergeCell ref="A116:D117"/>
-    <mergeCell ref="E116:J117"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="E114:J114"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="A37:D38"/>
+    <mergeCell ref="E37:J38"/>
+    <mergeCell ref="E101:J101"/>
+    <mergeCell ref="A102:D103"/>
+    <mergeCell ref="E102:J103"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="A57:D58"/>
+    <mergeCell ref="E57:J58"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F070AC83-B16D-4DF8-BB6E-4709FA554A42}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="S37" sqref="S37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3559,6 +3669,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101003F793005C4E9A34D9DA1229AA6DE7A48" ma:contentTypeVersion="16" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="486eefdc4fdfa7b1e5fa64b2d85ea3f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="286a3e33-430a-47f4-8dce-fd34889c2bb2" xmlns:ns3="429c7d5d-265d-44d1-b65a-f9dd31fe4b74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="88b09b98b4e900641fe2e0693b631b51" ns2:_="" ns3:_="">
     <xsd:import namespace="286a3e33-430a-47f4-8dce-fd34889c2bb2"/>
@@ -3801,15 +3920,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C483B193-E489-4907-AA3F-A9E07E3B92C7}">
   <ds:schemaRefs>
@@ -3822,6 +3932,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88AB248F-D96A-4058-9320-E2210795C82E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA0D5B00-772A-4D25-9D93-3C9611E840F0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3838,12 +3956,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88AB248F-D96A-4058-9320-E2210795C82E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/문서/5. 테이블 정의서/테이블 정의서.xlsx
+++ b/문서/5. 테이블 정의서/테이블 정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boyou\OneDrive\바탕 화면\project\test\문서\5. 테이블 정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6D8432-445A-4E16-86C1-2C43B2A1D30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC30FBB-E8DC-4DFD-A7F0-DDFDF39F1D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36435" yWindow="-915" windowWidth="25545" windowHeight="14055" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34500" yWindow="-1185" windowWidth="19185" windowHeight="13110" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 정의서" sheetId="1" r:id="rId1"/>
@@ -872,6 +872,18 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -917,7 +929,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -927,24 +945,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -978,16 +978,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>182376</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114897</xdr:rowOff>
+      <xdr:colOff>1376</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>29191</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
+        <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D5CBAF2-B378-2439-B694-DB69F0441BEE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25C8B490-CFA9-B7A8-F7D6-217B5EB80D02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1004,7 +1004,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="219075"/>
-          <a:ext cx="10040751" cy="4277322"/>
+          <a:ext cx="9859751" cy="4410691"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1022,16 +1022,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>563338</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>181581</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>12124</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2">
+        <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E760D972-D7B6-EDDB-9BB1-E5769EED5E49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EACEEAC0-27BC-A592-1685-087622F8A062}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1048,7 +1048,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="5257800"/>
-          <a:ext cx="9764488" cy="4344006"/>
+          <a:ext cx="9525000" cy="4393624"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1374,58 +1374,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="36"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42"/>
       <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="36"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="37" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
@@ -1804,112 +1804,112 @@
       <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="40" t="s">
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="42"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="39"/>
     </row>
     <row r="21" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="24"/>
     </row>
     <row r="22" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="29"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="33"/>
     </row>
     <row r="23" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A23" s="24"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="32"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="36"/>
     </row>
     <row r="26" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="34" t="s">
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="35"/>
-      <c r="F27" s="36"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="42"/>
       <c r="G27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="34" t="s">
+      <c r="H27" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="I27" s="35"/>
-      <c r="J27" s="36"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="42"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="37" t="s">
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="39"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
@@ -2058,112 +2058,112 @@
       <c r="J34" s="12"/>
     </row>
     <row r="35" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="40" t="s">
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="42"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="39"/>
     </row>
     <row r="36" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A36" s="18"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="24"/>
     </row>
     <row r="37" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="29"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="33"/>
     </row>
     <row r="38" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A38" s="24"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="36"/>
     </row>
     <row r="41" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
     </row>
     <row r="42" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A42" s="33" t="s">
+      <c r="A42" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="34" t="s">
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="E42" s="35"/>
-      <c r="F42" s="36"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="42"/>
       <c r="G42" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H42" s="34" t="s">
+      <c r="H42" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="I42" s="35"/>
-      <c r="J42" s="36"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="42"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A43" s="33" t="s">
+      <c r="A43" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="37" t="s">
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="39"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
     </row>
@@ -2430,112 +2430,112 @@
       <c r="J54" s="12"/>
     </row>
     <row r="55" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A55" s="33" t="s">
+      <c r="A55" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33" t="s">
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
     </row>
     <row r="56" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A56" s="18"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
+      <c r="A56" s="22"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="24"/>
     </row>
     <row r="57" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="29"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="33"/>
     </row>
     <row r="58" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A58" s="24"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="32"/>
+      <c r="A58" s="28"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="36"/>
     </row>
     <row r="61" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A61" s="33" t="s">
+      <c r="A61" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
     </row>
     <row r="62" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A62" s="33" t="s">
+      <c r="A62" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="34" t="s">
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="E62" s="35"/>
-      <c r="F62" s="36"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="42"/>
       <c r="G62" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H62" s="34" t="s">
+      <c r="H62" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="I62" s="35"/>
-      <c r="J62" s="36"/>
+      <c r="I62" s="41"/>
+      <c r="J62" s="42"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
     </row>
     <row r="63" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A63" s="33" t="s">
+      <c r="A63" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B63" s="33"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="37" t="s">
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="E63" s="38"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="38"/>
-      <c r="I63" s="38"/>
-      <c r="J63" s="39"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
     </row>
@@ -2867,112 +2867,112 @@
       <c r="J77" s="9"/>
     </row>
     <row r="78" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A78" s="40" t="s">
+      <c r="A78" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B78" s="41"/>
-      <c r="C78" s="41"/>
-      <c r="D78" s="42"/>
-      <c r="E78" s="40" t="s">
+      <c r="B78" s="38"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F78" s="41"/>
-      <c r="G78" s="41"/>
-      <c r="H78" s="41"/>
-      <c r="I78" s="41"/>
-      <c r="J78" s="42"/>
+      <c r="F78" s="38"/>
+      <c r="G78" s="38"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="38"/>
+      <c r="J78" s="39"/>
     </row>
     <row r="79" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A79" s="18"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
+      <c r="A79" s="22"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="24"/>
     </row>
     <row r="80" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A80" s="21" t="s">
+      <c r="A80" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B80" s="22"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="29"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="32"/>
+      <c r="I80" s="32"/>
+      <c r="J80" s="33"/>
     </row>
     <row r="81" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A81" s="24"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="30"/>
-      <c r="F81" s="31"/>
-      <c r="G81" s="31"/>
-      <c r="H81" s="31"/>
-      <c r="I81" s="31"/>
-      <c r="J81" s="32"/>
+      <c r="A81" s="28"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="35"/>
+      <c r="I81" s="35"/>
+      <c r="J81" s="36"/>
     </row>
     <row r="84" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A84" s="33" t="s">
+      <c r="A84" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="33"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="33"/>
-      <c r="G84" s="33"/>
-      <c r="H84" s="33"/>
-      <c r="I84" s="33"/>
-      <c r="J84" s="33"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="18"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
     </row>
     <row r="85" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A85" s="33" t="s">
+      <c r="A85" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B85" s="33"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="34" t="s">
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E85" s="35"/>
-      <c r="F85" s="36"/>
+      <c r="E85" s="41"/>
+      <c r="F85" s="42"/>
       <c r="G85" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H85" s="34" t="s">
+      <c r="H85" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="I85" s="35"/>
-      <c r="J85" s="36"/>
+      <c r="I85" s="41"/>
+      <c r="J85" s="42"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
     </row>
     <row r="86" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A86" s="33" t="s">
+      <c r="A86" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B86" s="33"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="37" t="s">
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E86" s="38"/>
-      <c r="F86" s="38"/>
-      <c r="G86" s="38"/>
-      <c r="H86" s="38"/>
-      <c r="I86" s="38"/>
-      <c r="J86" s="39"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="21"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
     </row>
@@ -3277,112 +3277,112 @@
       <c r="J99" s="12"/>
     </row>
     <row r="100" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A100" s="40" t="s">
+      <c r="A100" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B100" s="41"/>
-      <c r="C100" s="41"/>
-      <c r="D100" s="42"/>
-      <c r="E100" s="40" t="s">
+      <c r="B100" s="38"/>
+      <c r="C100" s="38"/>
+      <c r="D100" s="39"/>
+      <c r="E100" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F100" s="41"/>
-      <c r="G100" s="41"/>
-      <c r="H100" s="41"/>
-      <c r="I100" s="41"/>
-      <c r="J100" s="42"/>
+      <c r="F100" s="38"/>
+      <c r="G100" s="38"/>
+      <c r="H100" s="38"/>
+      <c r="I100" s="38"/>
+      <c r="J100" s="39"/>
     </row>
     <row r="101" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A101" s="18"/>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="20"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="19"/>
-      <c r="G101" s="19"/>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="20"/>
+      <c r="A101" s="22"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="22"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="23"/>
+      <c r="H101" s="23"/>
+      <c r="I101" s="23"/>
+      <c r="J101" s="24"/>
     </row>
     <row r="102" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A102" s="21" t="s">
+      <c r="A102" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B102" s="22"/>
-      <c r="C102" s="22"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="28"/>
-      <c r="G102" s="28"/>
-      <c r="H102" s="28"/>
-      <c r="I102" s="28"/>
-      <c r="J102" s="29"/>
+      <c r="B102" s="26"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="31"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="32"/>
+      <c r="H102" s="32"/>
+      <c r="I102" s="32"/>
+      <c r="J102" s="33"/>
     </row>
     <row r="103" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A103" s="24"/>
-      <c r="B103" s="25"/>
-      <c r="C103" s="25"/>
-      <c r="D103" s="26"/>
-      <c r="E103" s="30"/>
-      <c r="F103" s="31"/>
-      <c r="G103" s="31"/>
-      <c r="H103" s="31"/>
-      <c r="I103" s="31"/>
-      <c r="J103" s="32"/>
+      <c r="A103" s="28"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="34"/>
+      <c r="F103" s="35"/>
+      <c r="G103" s="35"/>
+      <c r="H103" s="35"/>
+      <c r="I103" s="35"/>
+      <c r="J103" s="36"/>
     </row>
     <row r="106" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A106" s="33" t="s">
+      <c r="A106" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B106" s="33"/>
-      <c r="C106" s="33"/>
-      <c r="D106" s="33"/>
-      <c r="E106" s="33"/>
-      <c r="F106" s="33"/>
-      <c r="G106" s="33"/>
-      <c r="H106" s="33"/>
-      <c r="I106" s="33"/>
-      <c r="J106" s="33"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="18"/>
+      <c r="H106" s="18"/>
+      <c r="I106" s="18"/>
+      <c r="J106" s="18"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
     </row>
     <row r="107" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A107" s="33" t="s">
+      <c r="A107" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B107" s="33"/>
-      <c r="C107" s="33"/>
-      <c r="D107" s="34" t="s">
+      <c r="B107" s="18"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="E107" s="35"/>
-      <c r="F107" s="36"/>
+      <c r="E107" s="41"/>
+      <c r="F107" s="42"/>
       <c r="G107" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="H107" s="34" t="s">
+      <c r="H107" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="I107" s="35"/>
-      <c r="J107" s="36"/>
+      <c r="I107" s="41"/>
+      <c r="J107" s="42"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
     </row>
     <row r="108" spans="1:12" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A108" s="33" t="s">
+      <c r="A108" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B108" s="33"/>
-      <c r="C108" s="33"/>
-      <c r="D108" s="37" t="s">
+      <c r="B108" s="18"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="E108" s="38"/>
-      <c r="F108" s="38"/>
-      <c r="G108" s="38"/>
-      <c r="H108" s="38"/>
-      <c r="I108" s="38"/>
-      <c r="J108" s="39"/>
+      <c r="E108" s="20"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="20"/>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="21"/>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
     </row>
@@ -3507,69 +3507,109 @@
       <c r="J113" s="12"/>
     </row>
     <row r="114" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A114" s="40" t="s">
+      <c r="A114" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B114" s="41"/>
-      <c r="C114" s="41"/>
-      <c r="D114" s="42"/>
-      <c r="E114" s="40" t="s">
+      <c r="B114" s="38"/>
+      <c r="C114" s="38"/>
+      <c r="D114" s="39"/>
+      <c r="E114" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F114" s="41"/>
-      <c r="G114" s="41"/>
-      <c r="H114" s="41"/>
-      <c r="I114" s="41"/>
-      <c r="J114" s="42"/>
+      <c r="F114" s="38"/>
+      <c r="G114" s="38"/>
+      <c r="H114" s="38"/>
+      <c r="I114" s="38"/>
+      <c r="J114" s="39"/>
     </row>
     <row r="115" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A115" s="18"/>
-      <c r="B115" s="19"/>
-      <c r="C115" s="19"/>
-      <c r="D115" s="20"/>
-      <c r="E115" s="18"/>
-      <c r="F115" s="19"/>
-      <c r="G115" s="19"/>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="20"/>
+      <c r="A115" s="22"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="23"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="22"/>
+      <c r="F115" s="23"/>
+      <c r="G115" s="23"/>
+      <c r="H115" s="23"/>
+      <c r="I115" s="23"/>
+      <c r="J115" s="24"/>
     </row>
     <row r="116" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A116" s="21" t="s">
+      <c r="A116" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B116" s="22"/>
-      <c r="C116" s="22"/>
-      <c r="D116" s="23"/>
-      <c r="E116" s="27"/>
-      <c r="F116" s="28"/>
-      <c r="G116" s="28"/>
-      <c r="H116" s="28"/>
-      <c r="I116" s="28"/>
-      <c r="J116" s="29"/>
+      <c r="B116" s="26"/>
+      <c r="C116" s="26"/>
+      <c r="D116" s="27"/>
+      <c r="E116" s="31"/>
+      <c r="F116" s="32"/>
+      <c r="G116" s="32"/>
+      <c r="H116" s="32"/>
+      <c r="I116" s="32"/>
+      <c r="J116" s="33"/>
     </row>
     <row r="117" spans="1:10" s="2" customFormat="1" ht="25" customHeight="1">
-      <c r="A117" s="24"/>
-      <c r="B117" s="25"/>
-      <c r="C117" s="25"/>
-      <c r="D117" s="26"/>
-      <c r="E117" s="30"/>
-      <c r="F117" s="31"/>
-      <c r="G117" s="31"/>
-      <c r="H117" s="31"/>
-      <c r="I117" s="31"/>
-      <c r="J117" s="32"/>
+      <c r="A117" s="28"/>
+      <c r="B117" s="29"/>
+      <c r="C117" s="29"/>
+      <c r="D117" s="30"/>
+      <c r="E117" s="34"/>
+      <c r="F117" s="35"/>
+      <c r="G117" s="35"/>
+      <c r="H117" s="35"/>
+      <c r="I117" s="35"/>
+      <c r="J117" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="D108:J108"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="E115:J115"/>
-    <mergeCell ref="A116:D117"/>
-    <mergeCell ref="E116:J117"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="E114:J114"/>
+    <mergeCell ref="E101:J101"/>
+    <mergeCell ref="A102:D103"/>
+    <mergeCell ref="E102:J103"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="A57:D58"/>
+    <mergeCell ref="E57:J58"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="A37:D38"/>
+    <mergeCell ref="E37:J38"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="A80:D81"/>
+    <mergeCell ref="E80:J81"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="E79:J79"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="E78:J78"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A22:D23"/>
+    <mergeCell ref="E22:J23"/>
+    <mergeCell ref="A3:C3"/>
     <mergeCell ref="A107:C107"/>
     <mergeCell ref="A106:J106"/>
     <mergeCell ref="D107:F107"/>
@@ -3586,54 +3626,14 @@
     <mergeCell ref="A100:D100"/>
     <mergeCell ref="E100:J100"/>
     <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="A80:D81"/>
-    <mergeCell ref="E80:J81"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="E79:J79"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="E78:J78"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A22:D23"/>
-    <mergeCell ref="E22:J23"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="A37:D38"/>
-    <mergeCell ref="E37:J38"/>
-    <mergeCell ref="E101:J101"/>
-    <mergeCell ref="A102:D103"/>
-    <mergeCell ref="E102:J103"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="A57:D58"/>
-    <mergeCell ref="E57:J58"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="D108:J108"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="E115:J115"/>
+    <mergeCell ref="A116:D117"/>
+    <mergeCell ref="E116:J117"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="E114:J114"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3645,39 +3645,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F070AC83-B16D-4DF8-BB6E-4709FA554A42}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="S37" sqref="S37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="429c7d5d-265d-44d1-b65a-f9dd31fe4b74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="286a3e33-430a-47f4-8dce-fd34889c2bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101003F793005C4E9A34D9DA1229AA6DE7A48" ma:contentTypeVersion="16" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="486eefdc4fdfa7b1e5fa64b2d85ea3f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="286a3e33-430a-47f4-8dce-fd34889c2bb2" xmlns:ns3="429c7d5d-265d-44d1-b65a-f9dd31fe4b74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="88b09b98b4e900641fe2e0693b631b51" ns2:_="" ns3:_="">
     <xsd:import namespace="286a3e33-430a-47f4-8dce-fd34889c2bb2"/>
@@ -3920,26 +3901,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C483B193-E489-4907-AA3F-A9E07E3B92C7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="429c7d5d-265d-44d1-b65a-f9dd31fe4b74"/>
-    <ds:schemaRef ds:uri="286a3e33-430a-47f4-8dce-fd34889c2bb2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88AB248F-D96A-4058-9320-E2210795C82E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="429c7d5d-265d-44d1-b65a-f9dd31fe4b74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="286a3e33-430a-47f4-8dce-fd34889c2bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA0D5B00-772A-4D25-9D93-3C9611E840F0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3956,4 +3938,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88AB248F-D96A-4058-9320-E2210795C82E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C483B193-E489-4907-AA3F-A9E07E3B92C7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="429c7d5d-265d-44d1-b65a-f9dd31fe4b74"/>
+    <ds:schemaRef ds:uri="286a3e33-430a-47f4-8dce-fd34889c2bb2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>